--- a/Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2684659D-E4FB-4B21-A922-961BE08FA023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDAIF" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>DDAIF</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,148 +689,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47839800</v>
+        <v>52296000</v>
       </c>
       <c r="E8" s="3">
-        <v>46700000</v>
+        <v>45116300</v>
       </c>
       <c r="F8" s="3">
-        <v>51165200</v>
+        <v>45727800</v>
       </c>
       <c r="G8" s="3">
-        <v>47899700</v>
+        <v>44638400</v>
       </c>
       <c r="H8" s="3">
-        <v>48377400</v>
+        <v>48933300</v>
       </c>
       <c r="I8" s="3">
+        <v>45715500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>46241700</v>
+      </c>
+      <c r="K8" s="3">
         <v>45287900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>48127400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38155900</v>
+        <v>43064200</v>
       </c>
       <c r="E9" s="3">
-        <v>36575900</v>
+        <v>36180800</v>
       </c>
       <c r="F9" s="3">
-        <v>40485900</v>
+        <v>36471400</v>
       </c>
       <c r="G9" s="3">
-        <v>38000900</v>
+        <v>34961200</v>
       </c>
       <c r="H9" s="3">
-        <v>38054900</v>
+        <v>38599800</v>
       </c>
       <c r="I9" s="3">
+        <v>36155000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>36374900</v>
+      </c>
+      <c r="K9" s="3">
         <v>35893900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38207500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9683900</v>
+        <v>9231700</v>
       </c>
       <c r="E10" s="3">
-        <v>10124100</v>
+        <v>8935500</v>
       </c>
       <c r="F10" s="3">
-        <v>10679300</v>
+        <v>9256400</v>
       </c>
       <c r="G10" s="3">
-        <v>9898700</v>
+        <v>9677200</v>
       </c>
       <c r="H10" s="3">
-        <v>10322500</v>
+        <v>10333500</v>
       </c>
       <c r="I10" s="3">
+        <v>9560500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9866800</v>
+      </c>
+      <c r="K10" s="3">
         <v>9394000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9919900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,37 +866,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1901600</v>
+        <v>1653800</v>
       </c>
       <c r="E12" s="3">
-        <v>2009600</v>
+        <v>1991500</v>
       </c>
       <c r="F12" s="3">
-        <v>1677400</v>
+        <v>1817600</v>
       </c>
       <c r="G12" s="3">
-        <v>1933300</v>
+        <v>1920800</v>
       </c>
       <c r="H12" s="3">
-        <v>1659800</v>
+        <v>1603300</v>
       </c>
       <c r="I12" s="3">
+        <v>1847900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1586500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1699700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1711400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,8 +932,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -894,8 +967,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44698700</v>
+        <v>49231800</v>
       </c>
       <c r="E17" s="3">
-        <v>43315900</v>
+        <v>42916100</v>
       </c>
       <c r="F17" s="3">
-        <v>47369100</v>
+        <v>42725400</v>
       </c>
       <c r="G17" s="3">
-        <v>43978000</v>
+        <v>41403700</v>
       </c>
       <c r="H17" s="3">
-        <v>44319500</v>
+        <v>45339600</v>
       </c>
       <c r="I17" s="3">
+        <v>42011800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42363000</v>
+      </c>
+      <c r="K17" s="3">
         <v>41665600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>44481500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3141100</v>
+        <v>3064200</v>
       </c>
       <c r="E18" s="3">
-        <v>3384100</v>
+        <v>2200200</v>
       </c>
       <c r="F18" s="3">
-        <v>3796100</v>
+        <v>3002400</v>
       </c>
       <c r="G18" s="3">
-        <v>3921700</v>
+        <v>3234700</v>
       </c>
       <c r="H18" s="3">
-        <v>4057900</v>
+        <v>3593700</v>
       </c>
       <c r="I18" s="3">
+        <v>3703700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3878700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3622400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3645900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1103,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-21300</v>
       </c>
       <c r="E20" s="3">
-        <v>551700</v>
+        <v>623800</v>
       </c>
       <c r="F20" s="3">
-        <v>274700</v>
+        <v>-3400</v>
       </c>
       <c r="G20" s="3">
-        <v>133800</v>
+        <v>527300</v>
       </c>
       <c r="H20" s="3">
-        <v>331000</v>
+        <v>242300</v>
       </c>
       <c r="I20" s="3">
+        <v>117800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>316400</v>
+      </c>
+      <c r="K20" s="3">
         <v>807600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>409700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4892400</v>
+        <v>4982800</v>
       </c>
       <c r="E21" s="3">
-        <v>5670700</v>
+        <v>4622600</v>
       </c>
       <c r="F21" s="3">
-        <v>5852600</v>
+        <v>4676500</v>
       </c>
       <c r="G21" s="3">
-        <v>5680100</v>
+        <v>5420300</v>
       </c>
       <c r="H21" s="3">
-        <v>6014600</v>
+        <v>5539300</v>
       </c>
       <c r="I21" s="3">
+        <v>5374300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5749100</v>
+      </c>
+      <c r="K21" s="3">
         <v>6060400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5675400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>167900</v>
+        <v>268200</v>
       </c>
       <c r="E22" s="3">
-        <v>124400</v>
+        <v>193000</v>
       </c>
       <c r="F22" s="3">
-        <v>120900</v>
+        <v>160400</v>
       </c>
       <c r="G22" s="3">
-        <v>113900</v>
+        <v>118900</v>
       </c>
       <c r="H22" s="3">
-        <v>103300</v>
+        <v>115600</v>
       </c>
       <c r="I22" s="3">
+        <v>108800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K22" s="3">
         <v>97400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>111500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2969700</v>
+        <v>2774700</v>
       </c>
       <c r="E23" s="3">
-        <v>3811400</v>
+        <v>2631100</v>
       </c>
       <c r="F23" s="3">
-        <v>3949900</v>
+        <v>2838600</v>
       </c>
       <c r="G23" s="3">
-        <v>3941700</v>
+        <v>3643100</v>
       </c>
       <c r="H23" s="3">
-        <v>4285600</v>
+        <v>3720500</v>
       </c>
       <c r="I23" s="3">
+        <v>3712700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4096400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4332500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3944000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>827500</v>
+        <v>932400</v>
       </c>
       <c r="E24" s="3">
-        <v>1048200</v>
+        <v>655200</v>
       </c>
       <c r="F24" s="3">
-        <v>90400</v>
+        <v>791000</v>
       </c>
       <c r="G24" s="3">
-        <v>1279500</v>
+        <v>1001900</v>
       </c>
       <c r="H24" s="3">
-        <v>1337000</v>
+        <v>112200</v>
       </c>
       <c r="I24" s="3">
+        <v>1202800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1277900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1219600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1354600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2142200</v>
+        <v>1842300</v>
       </c>
       <c r="E26" s="3">
-        <v>2763100</v>
+        <v>1975800</v>
       </c>
       <c r="F26" s="3">
-        <v>3859500</v>
+        <v>2047600</v>
       </c>
       <c r="G26" s="3">
-        <v>2662200</v>
+        <v>2641200</v>
       </c>
       <c r="H26" s="3">
-        <v>2948600</v>
+        <v>3608300</v>
       </c>
       <c r="I26" s="3">
+        <v>2509900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2818400</v>
+      </c>
+      <c r="K26" s="3">
         <v>3112900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2589400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2026000</v>
+        <v>1751400</v>
       </c>
       <c r="E27" s="3">
-        <v>2668100</v>
+        <v>1895000</v>
       </c>
       <c r="F27" s="3">
-        <v>3759700</v>
+        <v>1936600</v>
       </c>
       <c r="G27" s="3">
-        <v>2555400</v>
+        <v>2550300</v>
       </c>
       <c r="H27" s="3">
-        <v>2868800</v>
+        <v>3513000</v>
       </c>
       <c r="I27" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2742100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3001400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2522500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>21300</v>
       </c>
       <c r="E32" s="3">
-        <v>-551700</v>
+        <v>-623800</v>
       </c>
       <c r="F32" s="3">
-        <v>-274700</v>
+        <v>3400</v>
       </c>
       <c r="G32" s="3">
-        <v>-133800</v>
+        <v>-527300</v>
       </c>
       <c r="H32" s="3">
-        <v>-331000</v>
+        <v>-242300</v>
       </c>
       <c r="I32" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-316400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-807600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-409700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2026000</v>
+        <v>1751400</v>
       </c>
       <c r="E33" s="3">
-        <v>2668100</v>
+        <v>1895000</v>
       </c>
       <c r="F33" s="3">
-        <v>3759700</v>
+        <v>1936600</v>
       </c>
       <c r="G33" s="3">
-        <v>2555400</v>
+        <v>2550300</v>
       </c>
       <c r="H33" s="3">
-        <v>2868800</v>
+        <v>3513000</v>
       </c>
       <c r="I33" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2742100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3001400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2522500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2026000</v>
+        <v>1751400</v>
       </c>
       <c r="E35" s="3">
-        <v>2668100</v>
+        <v>1895000</v>
       </c>
       <c r="F35" s="3">
-        <v>3759700</v>
+        <v>1936600</v>
       </c>
       <c r="G35" s="3">
-        <v>2555400</v>
+        <v>2550300</v>
       </c>
       <c r="H35" s="3">
-        <v>2868800</v>
+        <v>3513000</v>
       </c>
       <c r="I35" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2742100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3001400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2522500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1733,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16825400</v>
+        <v>17786900</v>
       </c>
       <c r="E41" s="3">
-        <v>16501400</v>
+        <v>16845600</v>
       </c>
       <c r="F41" s="3">
-        <v>14170200</v>
+        <v>16082600</v>
       </c>
       <c r="G41" s="3">
-        <v>20425500</v>
+        <v>15772900</v>
       </c>
       <c r="H41" s="3">
-        <v>15253700</v>
+        <v>13544700</v>
       </c>
       <c r="I41" s="3">
+        <v>19523700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>14580300</v>
+      </c>
+      <c r="K41" s="3">
         <v>15219600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12889600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16138700</v>
+        <v>13267500</v>
       </c>
       <c r="E42" s="3">
-        <v>15408600</v>
+        <v>14392900</v>
       </c>
       <c r="F42" s="3">
-        <v>14878000</v>
+        <v>15426200</v>
       </c>
       <c r="G42" s="3">
-        <v>14675000</v>
+        <v>14728400</v>
       </c>
       <c r="H42" s="3">
-        <v>13932000</v>
+        <v>14221200</v>
       </c>
       <c r="I42" s="3">
+        <v>14027100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>13316900</v>
+      </c>
+      <c r="K42" s="3">
         <v>13057500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14655000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61745900</v>
+        <v>65104600</v>
       </c>
       <c r="E43" s="3">
-        <v>60862000</v>
+        <v>61961900</v>
       </c>
       <c r="F43" s="3">
-        <v>60391400</v>
+        <v>59020000</v>
       </c>
       <c r="G43" s="3">
-        <v>56582300</v>
+        <v>58175200</v>
       </c>
       <c r="H43" s="3">
-        <v>55563500</v>
+        <v>57725300</v>
       </c>
       <c r="I43" s="3">
+        <v>54084400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>53110500</v>
+      </c>
+      <c r="K43" s="3">
         <v>56567100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>56624600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34218900</v>
+        <v>33086400</v>
       </c>
       <c r="E44" s="3">
-        <v>32372500</v>
+        <v>36045100</v>
       </c>
       <c r="F44" s="3">
-        <v>30150500</v>
+        <v>32708300</v>
       </c>
       <c r="G44" s="3">
-        <v>31643600</v>
+        <v>30943400</v>
       </c>
       <c r="H44" s="3">
-        <v>30785500</v>
+        <v>28819400</v>
       </c>
       <c r="I44" s="3">
+        <v>30246600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>29426400</v>
+      </c>
+      <c r="K44" s="3">
         <v>31289100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>29796000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6760000</v>
+        <v>7203200</v>
       </c>
       <c r="E45" s="3">
-        <v>6392600</v>
+        <v>6922700</v>
       </c>
       <c r="F45" s="3">
-        <v>5885500</v>
+        <v>6461500</v>
       </c>
       <c r="G45" s="3">
-        <v>5904300</v>
+        <v>6110400</v>
       </c>
       <c r="H45" s="3">
-        <v>5785700</v>
+        <v>5625700</v>
       </c>
       <c r="I45" s="3">
+        <v>5643600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5530300</v>
+      </c>
+      <c r="K45" s="3">
         <v>5720000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5824400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135688900</v>
+        <v>136448600</v>
       </c>
       <c r="E46" s="3">
-        <v>131537100</v>
+        <v>136168100</v>
       </c>
       <c r="F46" s="3">
-        <v>125475600</v>
+        <v>129698700</v>
       </c>
       <c r="G46" s="3">
-        <v>129230600</v>
+        <v>125730200</v>
       </c>
       <c r="H46" s="3">
-        <v>121320300</v>
+        <v>119936200</v>
       </c>
       <c r="I46" s="3">
+        <v>123525500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>115964400</v>
+      </c>
+      <c r="K46" s="3">
         <v>121853200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>119789700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68324000</v>
+        <v>66921100</v>
       </c>
       <c r="E47" s="3">
-        <v>67382600</v>
+        <v>64700700</v>
       </c>
       <c r="F47" s="3">
-        <v>65277900</v>
+        <v>65307700</v>
       </c>
       <c r="G47" s="3">
-        <v>63803600</v>
+        <v>64407800</v>
       </c>
       <c r="H47" s="3">
-        <v>62054600</v>
+        <v>62396100</v>
       </c>
       <c r="I47" s="3">
+        <v>60986900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>59315100</v>
+      </c>
+      <c r="K47" s="3">
         <v>62174400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>59838500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90964400</v>
+        <v>90234900</v>
       </c>
       <c r="E48" s="3">
-        <v>88240000</v>
+        <v>88229900</v>
       </c>
       <c r="F48" s="3">
-        <v>88100300</v>
+        <v>86948600</v>
       </c>
       <c r="G48" s="3">
-        <v>87090800</v>
+        <v>84344500</v>
       </c>
       <c r="H48" s="3">
-        <v>86431200</v>
+        <v>84211000</v>
       </c>
       <c r="I48" s="3">
+        <v>83246000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>82615500</v>
+      </c>
+      <c r="K48" s="3">
         <v>86853700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>86067300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16743200</v>
+        <v>16606600</v>
       </c>
       <c r="E49" s="3">
-        <v>16388700</v>
+        <v>16302500</v>
       </c>
       <c r="F49" s="3">
-        <v>16122300</v>
+        <v>16004100</v>
       </c>
       <c r="G49" s="3">
-        <v>15597600</v>
+        <v>15665200</v>
       </c>
       <c r="H49" s="3">
-        <v>15183200</v>
+        <v>15410500</v>
       </c>
       <c r="I49" s="3">
+        <v>14909000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14512900</v>
+      </c>
+      <c r="K49" s="3">
         <v>14723100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14200800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5286800</v>
+        <v>5762500</v>
       </c>
       <c r="E52" s="3">
-        <v>4913600</v>
+        <v>4916600</v>
       </c>
       <c r="F52" s="3">
-        <v>4750400</v>
+        <v>5053400</v>
       </c>
       <c r="G52" s="3">
-        <v>4320800</v>
+        <v>4696700</v>
       </c>
       <c r="H52" s="3">
-        <v>4467500</v>
+        <v>4540700</v>
       </c>
       <c r="I52" s="3">
+        <v>4130000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4270300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5344400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5325600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>317007300</v>
+        <v>315973700</v>
       </c>
       <c r="E54" s="3">
-        <v>308462000</v>
+        <v>310317800</v>
       </c>
       <c r="F54" s="3">
-        <v>299726500</v>
+        <v>303012500</v>
       </c>
       <c r="G54" s="3">
-        <v>300043400</v>
+        <v>294844400</v>
       </c>
       <c r="H54" s="3">
-        <v>289456900</v>
+        <v>286494500</v>
       </c>
       <c r="I54" s="3">
+        <v>286797500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>276678200</v>
+      </c>
+      <c r="K54" s="3">
         <v>290948800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>285221700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2253,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18447600</v>
+        <v>15915400</v>
       </c>
       <c r="E57" s="3">
-        <v>17448700</v>
+        <v>18418600</v>
       </c>
       <c r="F57" s="3">
-        <v>14615100</v>
+        <v>17633200</v>
       </c>
       <c r="G57" s="3">
-        <v>17841900</v>
+        <v>16678400</v>
       </c>
       <c r="H57" s="3">
-        <v>16401600</v>
+        <v>13969900</v>
       </c>
       <c r="I57" s="3">
+        <v>17054200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15677600</v>
+      </c>
+      <c r="K57" s="3">
         <v>16264300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>13577500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59305600</v>
+        <v>63100700</v>
       </c>
       <c r="E58" s="3">
-        <v>57689200</v>
+        <v>59710100</v>
       </c>
       <c r="F58" s="3">
-        <v>57218500</v>
+        <v>56687400</v>
       </c>
       <c r="G58" s="3">
-        <v>53295700</v>
+        <v>55142400</v>
       </c>
       <c r="H58" s="3">
-        <v>53134900</v>
+        <v>54692500</v>
       </c>
       <c r="I58" s="3">
+        <v>50942800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>50789100</v>
+      </c>
+      <c r="K58" s="3">
         <v>51668800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>55507100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30933400</v>
+        <v>30885000</v>
       </c>
       <c r="E59" s="3">
-        <v>30570700</v>
+        <v>30457500</v>
       </c>
       <c r="F59" s="3">
-        <v>31020300</v>
+        <v>29567800</v>
       </c>
       <c r="G59" s="3">
-        <v>28940300</v>
+        <v>29221100</v>
       </c>
       <c r="H59" s="3">
-        <v>28035300</v>
+        <v>29650800</v>
       </c>
       <c r="I59" s="3">
+        <v>27662700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>26797600</v>
+      </c>
+      <c r="K59" s="3">
         <v>34037000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>30051900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>108686600</v>
+        <v>109901200</v>
       </c>
       <c r="E60" s="3">
-        <v>105708600</v>
+        <v>108586200</v>
       </c>
       <c r="F60" s="3">
-        <v>102853900</v>
+        <v>103888400</v>
       </c>
       <c r="G60" s="3">
-        <v>100077900</v>
+        <v>101041900</v>
       </c>
       <c r="H60" s="3">
-        <v>97571800</v>
+        <v>98313300</v>
       </c>
       <c r="I60" s="3">
+        <v>95659700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>93264300</v>
+      </c>
+      <c r="K60" s="3">
         <v>101970000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>99136500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101659000</v>
+        <v>99477900</v>
       </c>
       <c r="E61" s="3">
-        <v>94187700</v>
+        <v>98631900</v>
       </c>
       <c r="F61" s="3">
-        <v>92000900</v>
+        <v>97171100</v>
       </c>
       <c r="G61" s="3">
-        <v>92121800</v>
+        <v>90029600</v>
       </c>
       <c r="H61" s="3">
-        <v>87135400</v>
+        <v>87939300</v>
       </c>
       <c r="I61" s="3">
+        <v>88054900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>83288700</v>
+      </c>
+      <c r="K61" s="3">
         <v>86016800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>82633900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31307900</v>
+        <v>32483900</v>
       </c>
       <c r="E62" s="3">
-        <v>30053100</v>
+        <v>29549900</v>
       </c>
       <c r="F62" s="3">
-        <v>28387400</v>
+        <v>29925700</v>
       </c>
       <c r="G62" s="3">
-        <v>34210700</v>
+        <v>28726300</v>
       </c>
       <c r="H62" s="3">
-        <v>33526400</v>
+        <v>27134200</v>
       </c>
       <c r="I62" s="3">
+        <v>32700400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>32046300</v>
+      </c>
+      <c r="K62" s="3">
         <v>34324600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>34040500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243101900</v>
+        <v>243418000</v>
       </c>
       <c r="E66" s="3">
-        <v>231564500</v>
+        <v>238256800</v>
       </c>
       <c r="F66" s="3">
-        <v>224756400</v>
+        <v>232369700</v>
       </c>
       <c r="G66" s="3">
-        <v>227780200</v>
+        <v>221341700</v>
       </c>
       <c r="H66" s="3">
-        <v>219520100</v>
+        <v>214834200</v>
       </c>
       <c r="I66" s="3">
+        <v>217724400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>209829000</v>
+      </c>
+      <c r="K66" s="3">
         <v>223534500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>217199500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55602200</v>
+        <v>55527300</v>
       </c>
       <c r="E72" s="3">
-        <v>58309000</v>
+        <v>55070600</v>
       </c>
       <c r="F72" s="3">
-        <v>55828800</v>
+        <v>53131800</v>
       </c>
       <c r="G72" s="3">
-        <v>52546800</v>
+        <v>55722500</v>
       </c>
       <c r="H72" s="3">
-        <v>49831800</v>
+        <v>53354000</v>
       </c>
       <c r="I72" s="3">
+        <v>50207900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>47608300</v>
+      </c>
+      <c r="K72" s="3">
         <v>47154300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>47865600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73905400</v>
+        <v>72555700</v>
       </c>
       <c r="E76" s="3">
-        <v>76897500</v>
+        <v>72060900</v>
       </c>
       <c r="F76" s="3">
-        <v>74970100</v>
+        <v>70642700</v>
       </c>
       <c r="G76" s="3">
-        <v>72263300</v>
+        <v>73502700</v>
       </c>
       <c r="H76" s="3">
-        <v>69936800</v>
+        <v>71660400</v>
       </c>
       <c r="I76" s="3">
+        <v>69073100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>66849300</v>
+      </c>
+      <c r="K76" s="3">
         <v>67414300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>68022300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2026000</v>
+        <v>1751400</v>
       </c>
       <c r="E81" s="3">
-        <v>2668100</v>
+        <v>1895000</v>
       </c>
       <c r="F81" s="3">
-        <v>3759700</v>
+        <v>1936600</v>
       </c>
       <c r="G81" s="3">
-        <v>2555400</v>
+        <v>2550300</v>
       </c>
       <c r="H81" s="3">
-        <v>2868800</v>
+        <v>3513000</v>
       </c>
       <c r="I81" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2742100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3001400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2522500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1754800</v>
+        <v>1939900</v>
       </c>
       <c r="E83" s="3">
-        <v>1734900</v>
+        <v>1798500</v>
       </c>
       <c r="F83" s="3">
-        <v>1781800</v>
+        <v>1677400</v>
       </c>
       <c r="G83" s="3">
-        <v>1624600</v>
+        <v>1658300</v>
       </c>
       <c r="H83" s="3">
-        <v>1625700</v>
+        <v>1703200</v>
       </c>
       <c r="I83" s="3">
+        <v>1552800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1630400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1619900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>172600</v>
+        <v>1316100</v>
       </c>
       <c r="E89" s="3">
-        <v>954300</v>
+        <v>-2008400</v>
       </c>
       <c r="F89" s="3">
-        <v>-6417200</v>
+        <v>164900</v>
       </c>
       <c r="G89" s="3">
-        <v>1523600</v>
+        <v>912200</v>
       </c>
       <c r="H89" s="3">
-        <v>559900</v>
+        <v>-6133900</v>
       </c>
       <c r="I89" s="3">
+        <v>1456300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>535200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2394600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>332200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2732600</v>
+        <v>-2890200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2474400</v>
+        <v>-2316900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4059000</v>
+        <v>-1739100</v>
       </c>
       <c r="G91" s="3">
-        <v>2523700</v>
+        <v>-1506800</v>
       </c>
       <c r="H91" s="3">
-        <v>-5347900</v>
+        <v>-2888000</v>
       </c>
       <c r="I91" s="3">
+        <v>-1644800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1575300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2692700</v>
+        <v>-3380600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2631700</v>
+        <v>-2661400</v>
       </c>
       <c r="F94" s="3">
-        <v>-4676500</v>
+        <v>-2573800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3706900</v>
+        <v>-2515500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3190400</v>
+        <v>-4470000</v>
       </c>
       <c r="I94" s="3">
+        <v>-3543200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3049600</v>
+      </c>
+      <c r="K94" s="3">
         <v>401400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +3473,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3003,8 +3504,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2542500</v>
+        <v>2921700</v>
       </c>
       <c r="E100" s="3">
-        <v>4137700</v>
+        <v>5532500</v>
       </c>
       <c r="F100" s="3">
-        <v>4897100</v>
+        <v>2430200</v>
       </c>
       <c r="G100" s="3">
-        <v>7663800</v>
+        <v>3955000</v>
       </c>
       <c r="H100" s="3">
-        <v>3311300</v>
+        <v>4680900</v>
       </c>
       <c r="I100" s="3">
+        <v>7325500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3165100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-461300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4831400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>301700</v>
+        <v>84100</v>
       </c>
       <c r="E101" s="3">
-        <v>-129100</v>
+        <v>-99900</v>
       </c>
       <c r="F101" s="3">
-        <v>-58700</v>
+        <v>288400</v>
       </c>
       <c r="G101" s="3">
-        <v>-308700</v>
+        <v>-123400</v>
       </c>
       <c r="H101" s="3">
-        <v>-646800</v>
+        <v>-56100</v>
       </c>
       <c r="I101" s="3">
+        <v>-295100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-618200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>156100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>324000</v>
+        <v>941300</v>
       </c>
       <c r="E102" s="3">
-        <v>2331200</v>
+        <v>763000</v>
       </c>
       <c r="F102" s="3">
-        <v>-6255200</v>
+        <v>309700</v>
       </c>
       <c r="G102" s="3">
-        <v>5171800</v>
+        <v>2228300</v>
       </c>
       <c r="H102" s="3">
-        <v>34000</v>
+        <v>-5979100</v>
       </c>
       <c r="I102" s="3">
+        <v>4943500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2330000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2684659D-E4FB-4B21-A922-961BE08FA023}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="DDAIF" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>DDAIF</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,172 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52296000</v>
+        <v>47510500</v>
       </c>
       <c r="E8" s="3">
-        <v>45116300</v>
+        <v>46829700</v>
       </c>
       <c r="F8" s="3">
-        <v>45727800</v>
+        <v>43588400</v>
       </c>
       <c r="G8" s="3">
-        <v>44638400</v>
+        <v>51177800</v>
       </c>
       <c r="H8" s="3">
+        <v>44151700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44750100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>43683900</v>
+      </c>
+      <c r="K8" s="3">
         <v>48933300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>45715500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>46241700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>45287900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>48127400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43064200</v>
+        <v>37986400</v>
       </c>
       <c r="E9" s="3">
-        <v>36180800</v>
+        <v>38356400</v>
       </c>
       <c r="F9" s="3">
-        <v>36471400</v>
+        <v>35275400</v>
       </c>
       <c r="G9" s="3">
-        <v>34961200</v>
+        <v>42143400</v>
       </c>
       <c r="H9" s="3">
+        <v>35407200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>35691600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>34213700</v>
+      </c>
+      <c r="K9" s="3">
         <v>38599800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>36155000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>36374900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>35893900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>38207500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9231700</v>
+        <v>9524100</v>
       </c>
       <c r="E10" s="3">
-        <v>8935500</v>
+        <v>8473300</v>
       </c>
       <c r="F10" s="3">
-        <v>9256400</v>
+        <v>8313000</v>
       </c>
       <c r="G10" s="3">
-        <v>9677200</v>
+        <v>9034300</v>
       </c>
       <c r="H10" s="3">
+        <v>8744500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>9058500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9470300</v>
+      </c>
+      <c r="K10" s="3">
         <v>10333500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>9560500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>9866800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>9394000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>9919900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,43 +869,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1653800</v>
+        <v>1936900</v>
       </c>
       <c r="E12" s="3">
-        <v>1991500</v>
+        <v>1722800</v>
       </c>
       <c r="F12" s="3">
-        <v>1817600</v>
+        <v>1871000</v>
       </c>
       <c r="G12" s="3">
-        <v>1920800</v>
+        <v>1618500</v>
       </c>
       <c r="H12" s="3">
+        <v>1949000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1778800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1879800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1603300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1847900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>1586500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>1699700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>1711400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -938,19 +951,28 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>2383800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-788400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -973,8 +995,17 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1039,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49231800</v>
+        <v>44653500</v>
       </c>
       <c r="E17" s="3">
-        <v>42916100</v>
+        <v>48675400</v>
       </c>
       <c r="F17" s="3">
-        <v>42725400</v>
+        <v>40635900</v>
       </c>
       <c r="G17" s="3">
-        <v>41403700</v>
+        <v>48179100</v>
       </c>
       <c r="H17" s="3">
+        <v>41998500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>41811800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40518400</v>
+      </c>
+      <c r="K17" s="3">
         <v>45339600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>42011800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>42363000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>41665600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>44481500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3064200</v>
+        <v>2857000</v>
       </c>
       <c r="E18" s="3">
-        <v>2200200</v>
+        <v>-1845700</v>
       </c>
       <c r="F18" s="3">
-        <v>3002400</v>
+        <v>2952500</v>
       </c>
       <c r="G18" s="3">
-        <v>3234700</v>
+        <v>2998600</v>
       </c>
       <c r="H18" s="3">
+        <v>2153200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2938200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3165500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3593700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3703700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3878700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3622400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>3645900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,183 +1166,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21300</v>
+        <v>141600</v>
       </c>
       <c r="E20" s="3">
-        <v>623800</v>
+        <v>217400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3400</v>
+        <v>157000</v>
       </c>
       <c r="G20" s="3">
-        <v>527300</v>
+        <v>-20900</v>
       </c>
       <c r="H20" s="3">
+        <v>610500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>516100</v>
+      </c>
+      <c r="K20" s="3">
         <v>242300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>117800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>316400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>807600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>409700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4982800</v>
+        <v>5103500</v>
       </c>
       <c r="E21" s="3">
-        <v>4622600</v>
+        <v>395300</v>
       </c>
       <c r="F21" s="3">
-        <v>4676500</v>
+        <v>5087000</v>
       </c>
       <c r="G21" s="3">
-        <v>5420300</v>
+        <v>4876200</v>
       </c>
       <c r="H21" s="3">
+        <v>4523800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4576500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5304400</v>
+      </c>
+      <c r="K21" s="3">
         <v>5539300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>5374300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>5749100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>6060400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>5675400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>268200</v>
+        <v>171300</v>
       </c>
       <c r="E22" s="3">
-        <v>193000</v>
+        <v>207500</v>
       </c>
       <c r="F22" s="3">
-        <v>160400</v>
+        <v>229500</v>
       </c>
       <c r="G22" s="3">
-        <v>118900</v>
+        <v>262400</v>
       </c>
       <c r="H22" s="3">
+        <v>188900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>157000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K22" s="3">
         <v>115600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>108800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>98700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>97400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>111500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2774700</v>
+        <v>2827400</v>
       </c>
       <c r="E23" s="3">
-        <v>2631100</v>
+        <v>-1835900</v>
       </c>
       <c r="F23" s="3">
-        <v>2838600</v>
+        <v>2880100</v>
       </c>
       <c r="G23" s="3">
-        <v>3643100</v>
+        <v>2715400</v>
       </c>
       <c r="H23" s="3">
+        <v>2574800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2777900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3565200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3720500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>3712700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>4096400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>4332500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>3944000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>932400</v>
+        <v>836700</v>
       </c>
       <c r="E24" s="3">
-        <v>655200</v>
+        <v>-472100</v>
       </c>
       <c r="F24" s="3">
-        <v>791000</v>
+        <v>520500</v>
       </c>
       <c r="G24" s="3">
-        <v>1001900</v>
+        <v>912400</v>
       </c>
       <c r="H24" s="3">
+        <v>641200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>774100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>980500</v>
+      </c>
+      <c r="K24" s="3">
         <v>112200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>1202800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1277900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>1219600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>1354600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1842300</v>
+        <v>1990700</v>
       </c>
       <c r="E26" s="3">
-        <v>1975800</v>
+        <v>-1363700</v>
       </c>
       <c r="F26" s="3">
-        <v>2047600</v>
+        <v>2359600</v>
       </c>
       <c r="G26" s="3">
-        <v>2641200</v>
+        <v>1802900</v>
       </c>
       <c r="H26" s="3">
+        <v>1933600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2003900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2584700</v>
+      </c>
+      <c r="K26" s="3">
         <v>3608300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>2509900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>2818400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>3112900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>2589400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1751400</v>
+        <v>1887500</v>
       </c>
       <c r="E27" s="3">
-        <v>1895000</v>
+        <v>-1458100</v>
       </c>
       <c r="F27" s="3">
-        <v>1936600</v>
+        <v>2300300</v>
       </c>
       <c r="G27" s="3">
-        <v>2550300</v>
+        <v>1714000</v>
       </c>
       <c r="H27" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1895100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2495800</v>
+      </c>
+      <c r="K27" s="3">
         <v>3513000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>2407800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2742100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>3001400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>2522500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1556,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21300</v>
+        <v>-141600</v>
       </c>
       <c r="E32" s="3">
-        <v>-623800</v>
+        <v>-217400</v>
       </c>
       <c r="F32" s="3">
-        <v>3400</v>
+        <v>-157000</v>
       </c>
       <c r="G32" s="3">
-        <v>-527300</v>
+        <v>20900</v>
       </c>
       <c r="H32" s="3">
+        <v>-610500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-516100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-242300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-117800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-316400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-807600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-409700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1751400</v>
+        <v>1887500</v>
       </c>
       <c r="E33" s="3">
-        <v>1895000</v>
+        <v>-1458100</v>
       </c>
       <c r="F33" s="3">
-        <v>1936600</v>
+        <v>2300300</v>
       </c>
       <c r="G33" s="3">
-        <v>2550300</v>
+        <v>1714000</v>
       </c>
       <c r="H33" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1895100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2495800</v>
+      </c>
+      <c r="K33" s="3">
         <v>3513000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>2407800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2742100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>3001400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>2522500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1751400</v>
+        <v>1887500</v>
       </c>
       <c r="E35" s="3">
-        <v>1895000</v>
+        <v>-1458100</v>
       </c>
       <c r="F35" s="3">
-        <v>1936600</v>
+        <v>2300300</v>
       </c>
       <c r="G35" s="3">
-        <v>2550300</v>
+        <v>1714000</v>
       </c>
       <c r="H35" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1895100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2495800</v>
+      </c>
+      <c r="K35" s="3">
         <v>3513000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>2407800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2742100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>3001400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>2522500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,323 +1955,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17786900</v>
+        <v>18653900</v>
       </c>
       <c r="E41" s="3">
-        <v>16845600</v>
+        <v>13745900</v>
       </c>
       <c r="F41" s="3">
-        <v>16082600</v>
+        <v>18224600</v>
       </c>
       <c r="G41" s="3">
-        <v>15772900</v>
+        <v>17406600</v>
       </c>
       <c r="H41" s="3">
+        <v>16485400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15738700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15435700</v>
+      </c>
+      <c r="K41" s="3">
         <v>13544700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>19523700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>14580300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>15219600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>12889600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13267500</v>
+        <v>12742300</v>
       </c>
       <c r="E42" s="3">
-        <v>14392900</v>
+        <v>13404400</v>
       </c>
       <c r="F42" s="3">
-        <v>15426200</v>
+        <v>13467000</v>
       </c>
       <c r="G42" s="3">
-        <v>14728400</v>
+        <v>12983900</v>
       </c>
       <c r="H42" s="3">
+        <v>14085100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15096400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14413400</v>
+      </c>
+      <c r="K42" s="3">
         <v>14221200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>14027100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>13316900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>13057500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>14655000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65104600</v>
+        <v>66110600</v>
       </c>
       <c r="E43" s="3">
-        <v>61961900</v>
+        <v>64529500</v>
       </c>
       <c r="F43" s="3">
-        <v>59020000</v>
+        <v>65598900</v>
       </c>
       <c r="G43" s="3">
-        <v>58175200</v>
+        <v>63712500</v>
       </c>
       <c r="H43" s="3">
+        <v>60637100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>57758100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>56931300</v>
+      </c>
+      <c r="K43" s="3">
         <v>57725300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>54084400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>53110500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>56567100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>56624600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33086400</v>
+        <v>39036100</v>
       </c>
       <c r="E44" s="3">
-        <v>36045100</v>
+        <v>36738000</v>
       </c>
       <c r="F44" s="3">
-        <v>32708300</v>
+        <v>36788500</v>
       </c>
       <c r="G44" s="3">
-        <v>30943400</v>
+        <v>32378900</v>
       </c>
       <c r="H44" s="3">
+        <v>35274300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>32008900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>30281700</v>
+      </c>
+      <c r="K44" s="3">
         <v>28819400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>30246600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>29426400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>31289100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>29796000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7203200</v>
+        <v>6134500</v>
       </c>
       <c r="E45" s="3">
-        <v>6922700</v>
+        <v>6241000</v>
       </c>
       <c r="F45" s="3">
-        <v>6461500</v>
+        <v>6491400</v>
       </c>
       <c r="G45" s="3">
-        <v>6110400</v>
+        <v>7049200</v>
       </c>
       <c r="H45" s="3">
+        <v>6774700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6323400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5979700</v>
+      </c>
+      <c r="K45" s="3">
         <v>5625700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>5643600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>5530300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>5720000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>5824400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136448600</v>
+        <v>142677400</v>
       </c>
       <c r="E46" s="3">
-        <v>136168100</v>
+        <v>134658700</v>
       </c>
       <c r="F46" s="3">
-        <v>129698700</v>
+        <v>140570400</v>
       </c>
       <c r="G46" s="3">
-        <v>125730200</v>
+        <v>133531100</v>
       </c>
       <c r="H46" s="3">
+        <v>133256600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>126925500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>123041900</v>
+      </c>
+      <c r="K46" s="3">
         <v>119936200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>123525500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>115964400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>121853200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>119789700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66921100</v>
+        <v>69866800</v>
       </c>
       <c r="E47" s="3">
-        <v>64700700</v>
+        <v>68812800</v>
       </c>
       <c r="F47" s="3">
-        <v>65307700</v>
+        <v>69350800</v>
       </c>
       <c r="G47" s="3">
-        <v>64407800</v>
+        <v>65490200</v>
       </c>
       <c r="H47" s="3">
+        <v>63317300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>63911300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>63030700</v>
+      </c>
+      <c r="K47" s="3">
         <v>62396100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>60986900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>59315100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>62174400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>59838500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90234900</v>
+        <v>96930300</v>
       </c>
       <c r="E48" s="3">
-        <v>88229900</v>
+        <v>94605900</v>
       </c>
       <c r="F48" s="3">
-        <v>86948600</v>
+        <v>93715400</v>
       </c>
       <c r="G48" s="3">
-        <v>84344500</v>
+        <v>88305600</v>
       </c>
       <c r="H48" s="3">
+        <v>86343400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>85089500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>82541100</v>
+      </c>
+      <c r="K48" s="3">
         <v>84211000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>83246000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>82615500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>86853700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>86067300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16606600</v>
+        <v>17429700</v>
       </c>
       <c r="E49" s="3">
-        <v>16302500</v>
+        <v>16890500</v>
       </c>
       <c r="F49" s="3">
-        <v>16004100</v>
+        <v>16498500</v>
       </c>
       <c r="G49" s="3">
-        <v>15665200</v>
+        <v>16251500</v>
       </c>
       <c r="H49" s="3">
+        <v>15953900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>15661900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15330300</v>
+      </c>
+      <c r="K49" s="3">
         <v>15410500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>14909000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>14512900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>14723100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>14200800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5762500</v>
+        <v>8401900</v>
       </c>
       <c r="E52" s="3">
-        <v>4916600</v>
+        <v>8043900</v>
       </c>
       <c r="F52" s="3">
-        <v>5053400</v>
+        <v>6516600</v>
       </c>
       <c r="G52" s="3">
-        <v>4696700</v>
+        <v>5639300</v>
       </c>
       <c r="H52" s="3">
+        <v>4811400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4945400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4596200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4540700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>4130000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>4270300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>5344400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>5325600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>315973700</v>
+        <v>335306100</v>
       </c>
       <c r="E54" s="3">
-        <v>310317800</v>
+        <v>323011800</v>
       </c>
       <c r="F54" s="3">
-        <v>303012500</v>
+        <v>326651700</v>
       </c>
       <c r="G54" s="3">
-        <v>294844400</v>
+        <v>309217700</v>
       </c>
       <c r="H54" s="3">
+        <v>303682600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>296533600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>288540100</v>
+      </c>
+      <c r="K54" s="3">
         <v>286494500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>286797500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>276678200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>290948800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>285221700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,218 +2607,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15915400</v>
+        <v>17753600</v>
       </c>
       <c r="E57" s="3">
-        <v>18418600</v>
+        <v>16683000</v>
       </c>
       <c r="F57" s="3">
-        <v>17633200</v>
+        <v>17306700</v>
       </c>
       <c r="G57" s="3">
-        <v>16678400</v>
+        <v>15575100</v>
       </c>
       <c r="H57" s="3">
+        <v>18024800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>17256200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16321800</v>
+      </c>
+      <c r="K57" s="3">
         <v>13969900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>17054200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>15677600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>16264300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>13577500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>63100700</v>
+        <v>66163300</v>
       </c>
       <c r="E58" s="3">
-        <v>59710100</v>
+        <v>71494100</v>
       </c>
       <c r="F58" s="3">
-        <v>56687400</v>
+        <v>65529700</v>
       </c>
       <c r="G58" s="3">
-        <v>55142400</v>
+        <v>61751500</v>
       </c>
       <c r="H58" s="3">
+        <v>58433400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>55475400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>53963400</v>
+      </c>
+      <c r="K58" s="3">
         <v>54692500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>50942800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>50789100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>51668800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>55507100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30885000</v>
+        <v>33371500</v>
       </c>
       <c r="E59" s="3">
-        <v>30457500</v>
+        <v>32131900</v>
       </c>
       <c r="F59" s="3">
-        <v>29567800</v>
+        <v>31553200</v>
       </c>
       <c r="G59" s="3">
-        <v>29221100</v>
+        <v>30224600</v>
       </c>
       <c r="H59" s="3">
+        <v>29806300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>28935600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28596300</v>
+      </c>
+      <c r="K59" s="3">
         <v>29650800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>27662700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>26797600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>34037000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>30051900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>109901200</v>
+        <v>117288400</v>
       </c>
       <c r="E60" s="3">
-        <v>108586200</v>
+        <v>120309000</v>
       </c>
       <c r="F60" s="3">
-        <v>103888400</v>
+        <v>114389600</v>
       </c>
       <c r="G60" s="3">
-        <v>101041900</v>
+        <v>107551300</v>
       </c>
       <c r="H60" s="3">
+        <v>106264400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>101667100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>98881500</v>
+      </c>
+      <c r="K60" s="3">
         <v>98313300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>95659700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>93264300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>101970000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>99136500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99477900</v>
+        <v>109237800</v>
       </c>
       <c r="E61" s="3">
-        <v>98631900</v>
+        <v>97711000</v>
       </c>
       <c r="F61" s="3">
-        <v>97171100</v>
+        <v>104562500</v>
       </c>
       <c r="G61" s="3">
-        <v>90029600</v>
+        <v>97350900</v>
       </c>
       <c r="H61" s="3">
+        <v>96523000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>95093400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>88104600</v>
+      </c>
+      <c r="K61" s="3">
         <v>87939300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>88054900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>83288700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>86016800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>82633900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32483900</v>
+        <v>39856300</v>
       </c>
       <c r="E62" s="3">
-        <v>29549900</v>
+        <v>37157400</v>
       </c>
       <c r="F62" s="3">
-        <v>29925700</v>
+        <v>33182700</v>
       </c>
       <c r="G62" s="3">
-        <v>28726300</v>
+        <v>31789300</v>
       </c>
       <c r="H62" s="3">
+        <v>28918000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>29285900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28112100</v>
+      </c>
+      <c r="K62" s="3">
         <v>27134200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>32700400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>32046300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>34324600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>34040500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243418000</v>
+        <v>267928500</v>
       </c>
       <c r="E66" s="3">
-        <v>238256800</v>
+        <v>256600400</v>
       </c>
       <c r="F66" s="3">
-        <v>232369700</v>
+        <v>253696200</v>
       </c>
       <c r="G66" s="3">
-        <v>221341700</v>
+        <v>238213300</v>
       </c>
       <c r="H66" s="3">
+        <v>233162500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>227401300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>216609000</v>
+      </c>
+      <c r="K66" s="3">
         <v>214834200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>217724400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>209829000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>223534500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>217199500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55527300</v>
+        <v>50465200</v>
       </c>
       <c r="E72" s="3">
-        <v>55070600</v>
+        <v>49777800</v>
       </c>
       <c r="F72" s="3">
-        <v>53131800</v>
+        <v>56312000</v>
       </c>
       <c r="G72" s="3">
-        <v>55722500</v>
+        <v>54340000</v>
       </c>
       <c r="H72" s="3">
+        <v>53893100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>51995800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>54531100</v>
+      </c>
+      <c r="K72" s="3">
         <v>53354000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>50207900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>47608300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>47154300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>47865600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72555700</v>
+        <v>67377700</v>
       </c>
       <c r="E76" s="3">
-        <v>72060900</v>
+        <v>66411400</v>
       </c>
       <c r="F76" s="3">
-        <v>70642700</v>
+        <v>72955500</v>
       </c>
       <c r="G76" s="3">
-        <v>73502700</v>
+        <v>71004400</v>
       </c>
       <c r="H76" s="3">
+        <v>70520100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>69132300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>71931100</v>
+      </c>
+      <c r="K76" s="3">
         <v>71660400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>69073100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>66849300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>67414300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>68022300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1751400</v>
+        <v>1887500</v>
       </c>
       <c r="E81" s="3">
-        <v>1895000</v>
+        <v>-1458100</v>
       </c>
       <c r="F81" s="3">
-        <v>1936600</v>
+        <v>2300300</v>
       </c>
       <c r="G81" s="3">
-        <v>2550300</v>
+        <v>1714000</v>
       </c>
       <c r="H81" s="3">
+        <v>1854500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1895100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2495800</v>
+      </c>
+      <c r="K81" s="3">
         <v>3513000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>2407800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2742100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>3001400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>2522500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1939900</v>
+        <v>2104900</v>
       </c>
       <c r="E83" s="3">
-        <v>1798500</v>
+        <v>2023600</v>
       </c>
       <c r="F83" s="3">
-        <v>1677400</v>
+        <v>1977500</v>
       </c>
       <c r="G83" s="3">
-        <v>1658300</v>
+        <v>1898400</v>
       </c>
       <c r="H83" s="3">
+        <v>1760100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1641500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1622800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1703200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>1552800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>1554000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>1630400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>1619900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1316100</v>
+        <v>4789500</v>
       </c>
       <c r="E89" s="3">
-        <v>-2008400</v>
+        <v>1732600</v>
       </c>
       <c r="F89" s="3">
-        <v>164900</v>
+        <v>680800</v>
       </c>
       <c r="G89" s="3">
-        <v>912200</v>
+        <v>1288000</v>
       </c>
       <c r="H89" s="3">
+        <v>-1965400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>161400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>892700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1456300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>535200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>2394600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>332200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2890200</v>
+        <v>-1945700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2316900</v>
+        <v>-1922600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1739100</v>
+        <v>-1831500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1506800</v>
+        <v>-2828400</v>
       </c>
       <c r="H91" s="3">
+        <v>-2267400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1701900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1474600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3380600</v>
+        <v>-3154600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2661400</v>
+        <v>-1656900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2573800</v>
+        <v>-4131800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2515500</v>
+        <v>-3308300</v>
       </c>
       <c r="H94" s="3">
+        <v>-2604500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2518800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2461700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>401400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,8 +4136,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3510,8 +4174,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2921700</v>
+        <v>2846000</v>
       </c>
       <c r="E100" s="3">
-        <v>5532500</v>
+        <v>-4334900</v>
       </c>
       <c r="F100" s="3">
-        <v>2430200</v>
+        <v>4008800</v>
       </c>
       <c r="G100" s="3">
-        <v>3955000</v>
+        <v>2859200</v>
       </c>
       <c r="H100" s="3">
+        <v>5414200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2378300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3870500</v>
+      </c>
+      <c r="K100" s="3">
         <v>4680900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>7325500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>3165100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-461300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>4831400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84100</v>
+        <v>427100</v>
       </c>
       <c r="E101" s="3">
-        <v>-99900</v>
+        <v>-219600</v>
       </c>
       <c r="F101" s="3">
-        <v>288400</v>
+        <v>260200</v>
       </c>
       <c r="G101" s="3">
-        <v>-123400</v>
+        <v>82400</v>
       </c>
       <c r="H101" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>282200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-120800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-56100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-295100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-618200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>156100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>941300</v>
+        <v>4908100</v>
       </c>
       <c r="E102" s="3">
-        <v>763000</v>
+        <v>-4478700</v>
       </c>
       <c r="F102" s="3">
-        <v>309700</v>
+        <v>818000</v>
       </c>
       <c r="G102" s="3">
-        <v>2228300</v>
+        <v>921200</v>
       </c>
       <c r="H102" s="3">
+        <v>746600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>303000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2180600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>4943500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>32500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>2330000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>235900</v>
       </c>
     </row>
